--- a/docs/oncocore-CancerCondition.xlsx
+++ b/docs/oncocore-CancerCondition.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$51</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="304">
   <si>
     <t>Path</t>
   </si>
@@ -422,6 +422,16 @@
     <t>open</t>
   </si>
   <si>
+    <t>dateofdiagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DateOfDiagnosis-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The date the disease was first clinically recognized with sufficient certainty, regardless of whether it was fully characterized at that time.</t>
+  </si>
+  <si>
     <t>morphologybehavior</t>
   </si>
   <si>
@@ -432,16 +442,6 @@
     <t>A description of the morphology and behavioral characteristics of the cancer.</t>
   </si>
   <si>
-    <t>dateofdiagnosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-DateOfDiagnosis-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The date the disease was first clinically recognized with sufficient certainty, regardless of whether it was fully characterized at that time.</t>
-  </si>
-  <si>
     <t>Condition.modifierExtension</t>
   </si>
   <si>
@@ -784,7 +784,7 @@
     <t>Condition.stage.assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-CancerStagePanel]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-CancerStageGroup]]}
 </t>
   </si>
   <si>
@@ -872,7 +872,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodySiteVS</t>
+    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>.targetBodySiteCode</t>
@@ -884,64 +884,24 @@
     <t>Condition.bodySite.extension</t>
   </si>
   <si>
-    <t>laterality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
+    <t>locationqualifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-LocationQualifier-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Anatomical location or specimen further detailing the side(s) of interest.</t>
-  </si>
-  <si>
-    <t>anatomicaldirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-AnatomicalDirection-extension]]} {[]}
+    <t>Additional information, such as laterality or direction, that helps define the body location.</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Landmark-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Anatomical location or specimen further detailing directionality.</t>
-  </si>
-  <si>
-    <t>clockdirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ClockDirection-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A direction indicated by an angle relative to 12 o'clock.</t>
-  </si>
-  <si>
-    <t>commentordescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-CommentOrDescription-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A text note containing additional details, explanation, description, comment, or summarization.</t>
-  </si>
-  <si>
-    <t>attachment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Attachment-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A file that contains audio, video, image, or similar content.</t>
-  </si>
-  <si>
-    <t>distancefromlandmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DistanceFromLandmark-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>How far the anatomical location of interest is from the given landmark</t>
+    <t>An anatomical landmark that helps determine a body location.</t>
   </si>
   <si>
     <t>Condition.bodySite.coding</t>
@@ -1151,7 +1111,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AN51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3889,7 +3849,7 @@
         <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
@@ -6449,11 +6409,9 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B49" t="s" s="2">
         <v>284</v>
       </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6471,17 +6429,23 @@
         <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="K49" s="2"/>
       <c r="L49" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="M49" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6528,15 +6492,11 @@
       <c r="AD49" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE49" t="s" s="2">
-        <v>277</v>
-      </c>
+      <c r="AE49" s="2"/>
       <c r="AF49" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG49" s="2"/>
       <c r="AH49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6547,10 +6507,10 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>40</v>
@@ -6558,11 +6518,9 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6571,7 +6529,7 @@
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>40</v>
@@ -6580,17 +6538,23 @@
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="K50" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="L50" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6637,15 +6601,11 @@
       <c r="AD50" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE50" t="s" s="2">
-        <v>277</v>
-      </c>
+      <c r="AE50" s="2"/>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG50" s="2"/>
       <c r="AH50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6656,10 +6616,10 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>40</v>
+        <v>297</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>40</v>
+        <v>298</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -6667,11 +6627,9 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>40</v>
       </c>
@@ -6680,7 +6638,7 @@
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -6689,14 +6647,16 @@
         <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="K51" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="L51" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6720,7 +6680,7 @@
         <v>40</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W51" t="s" s="2">
         <v>40</v>
@@ -6747,13 +6707,13 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
@@ -6765,453 +6725,17 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="K52" s="2"/>
-      <c r="L52" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE53" s="2"/>
-      <c r="AF53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG53" s="2"/>
-      <c r="AH53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE54" s="2"/>
-      <c r="AF54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG54" s="2"/>
-      <c r="AH54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AM55" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM55">
+  <autoFilter ref="A1:AM51">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7221,7 +6745,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
+  <conditionalFormatting sqref="A2:AI50">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
